--- a/atguigu.xlsx
+++ b/atguigu.xlsx
@@ -7,22 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Nginx" sheetId="1" r:id="rId1"/>
+    <sheet name="IDEA" sheetId="3" r:id="rId1"/>
+    <sheet name="Linux" sheetId="2" r:id="rId2"/>
+    <sheet name="Nginx" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>01 Nginx从入门到精通 教程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02 安装部署 VMware中安装CentOS7 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJFKkgL4kqBtbX3J2FHmq8Ib</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10 基本使用 Nginx conf 最小配置解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09 基本使用 Nginx多进程模型和基本请求流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +47,61 @@
   </si>
   <si>
     <t>05 安装部署 虚拟机不能上网简单排错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJEEfgfPo0IMwu8ac5DIWYd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 http協議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 虛擬主機原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 conf配置解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 課程簡介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 VMware安装CentOS7 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 虛擬主機介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 C:\Windows\System32\drivers\etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 配置listen和server_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 外網域名解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 awk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 awk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJEs1Pz74t6oEG3pnW4twLNI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,9 +154,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -428,10 +491,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="15.625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -441,69 +806,99 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="B21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/atguigu.xlsx
+++ b/atguigu.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IDEA" sheetId="3" r:id="rId1"/>
     <sheet name="Linux" sheetId="2" r:id="rId2"/>
     <sheet name="Nginx" sheetId="1" r:id="rId3"/>
+    <sheet name="GCP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJFKkgL4kqBtbX3J2FHmq8Ib</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>07 安装部署 Nginx在centos7中编译安装成系统服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06 安装部署 Nginx四个发型版本简单介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +99,22 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJEs1Pz74t6oEG3pnW4twLNI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 遠程登錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLvYsUzEf9kaP39bS21SKn4Onp3KQRbFsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 安裝Nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -180,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,7 +617,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,7 +662,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -668,12 +686,12 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +700,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +761,9 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -778,7 +798,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +816,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -808,12 +828,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -828,17 +848,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,44 +873,44 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -903,4 +923,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/atguigu.xlsx
+++ b/atguigu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>https://www.youtube.com/playlist?list=PLmOn9nNkQxJFKkgL4kqBtbX3J2FHmq8Ib</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>26 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89 課程總結</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +639,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -715,7 +719,9 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
